--- a/NewUsers_2025.xlsx
+++ b/NewUsers_2025.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mado\Documents\C_Desktop\InviteNewUsers\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mado\Documents\C_Desktop\inviteUserForTrainingList\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AED30D02-633F-4547-BCCE-998222AD309D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4F00357-F4D6-4746-BE6B-D25A9A3CD313}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32760" yWindow="1785" windowWidth="21600" windowHeight="11235" xr2:uid="{0AE8BDB1-2AF4-4E69-9A51-3B6491F71B45}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0AE8BDB1-2AF4-4E69-9A51-3B6491F71B45}"/>
   </bookViews>
   <sheets>
     <sheet name="NewUsers2025" sheetId="1" r:id="rId1"/>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="102">
   <si>
     <t>Date/Time</t>
   </si>
@@ -230,7 +230,154 @@
     <t>December</t>
   </si>
   <si>
-    <t>LookFeel</t>
+    <t>INFOR LN LOOK AND FEEL</t>
+  </si>
+  <si>
+    <t>AP INVOICE REVIEW BASWARE - BUYER</t>
+  </si>
+  <si>
+    <t>AP INVOICE REGISTRATION</t>
+  </si>
+  <si>
+    <t>AP INVOICE REVIEW BASWARE - CONTROLLER</t>
+  </si>
+  <si>
+    <t>PROJECT SETUP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QRC - EXPENSE CLAIMS </t>
+  </si>
+  <si>
+    <t>BACKOFFICE - EXPENSE CLAIMS</t>
+  </si>
+  <si>
+    <t>ACCOUNT MATCHING</t>
+  </si>
+  <si>
+    <t>ACCOUNTS PAYABLE MONITORING</t>
+  </si>
+  <si>
+    <t>ACCOUNTS RECEIVABLE MONITORING</t>
+  </si>
+  <si>
+    <t>AUTOMATIC PAYMENTS</t>
+  </si>
+  <si>
+    <t>BANK STATEMENT PROCESSING</t>
+  </si>
+  <si>
+    <t>FINANCIAL REPORTING</t>
+  </si>
+  <si>
+    <t>JOURNAL VOUCHER PROCESSING</t>
+  </si>
+  <si>
+    <t>POSTING OF IHB</t>
+  </si>
+  <si>
+    <t>FX ACCOUNTING</t>
+  </si>
+  <si>
+    <t>(DELIVERABLE) SALES INVOICING</t>
+  </si>
+  <si>
+    <t>COST-PLUS INVOICING</t>
+  </si>
+  <si>
+    <t>PRO FORMA WORKFLOW (Marine Services Only)</t>
+  </si>
+  <si>
+    <t>ASSET ACCOUNTING</t>
+  </si>
+  <si>
+    <t>YELLOWSTAR</t>
+  </si>
+  <si>
+    <t>SMMS</t>
+  </si>
+  <si>
+    <t>MAXIMO</t>
+  </si>
+  <si>
+    <t>EMPLOYEES</t>
+  </si>
+  <si>
+    <t>ITEMS</t>
+  </si>
+  <si>
+    <t>APPROAL TRAINING INFOR LN, BASWARE, XM, TIMEWAY</t>
+  </si>
+  <si>
+    <t>PURCHASE ORDER APPROVAL</t>
+  </si>
+  <si>
+    <t>INFOR LN PURCHASE REQUISITIONS - User training</t>
+  </si>
+  <si>
+    <t>PROCUREMENT - PR, RFQ &amp; PO</t>
+  </si>
+  <si>
+    <t>CYCLE COUNTING</t>
+  </si>
+  <si>
+    <t>PURCHASE / WAREHOUSE RECEIPT PROCESS</t>
+  </si>
+  <si>
+    <t>VESSELS</t>
+  </si>
+  <si>
+    <t>PROJECT CONTROL REPORTS</t>
+  </si>
+  <si>
+    <t>FINANCIAL CONTROL REPORTS</t>
+  </si>
+  <si>
+    <t>REPORTING IN SAP BPC</t>
+  </si>
+  <si>
+    <t>FUEL/DAYS CONFIRMATION</t>
+  </si>
+  <si>
+    <t>TIMEWAY - HOURS REGISTRATION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BACK-OFFICE / SET-UP / REPORTING </t>
+  </si>
+  <si>
+    <t>TIMEWAY - APPROVERS &amp; REPORTING</t>
+  </si>
+  <si>
+    <t>VENA BOKA_BCR</t>
+  </si>
+  <si>
+    <t>VENA INSTALLATION WINDOWS 10 / VENA TOOL UPLOAD</t>
+  </si>
+  <si>
+    <t>SAP BPC UPLOAD</t>
+  </si>
+  <si>
+    <t>EXCEL RIBBON</t>
+  </si>
+  <si>
+    <t>YELLOWSTAR (WAREHOUSE RECEIPT)</t>
+  </si>
+  <si>
+    <t>208636</t>
+  </si>
+  <si>
+    <t>j.francke@smit.com</t>
+  </si>
+  <si>
+    <t>Smit Salvage Finance &amp; Control NL</t>
+  </si>
+  <si>
+    <t>J.mol@smit.com</t>
+  </si>
+  <si>
+    <t>Senior Finance Manager</t>
+  </si>
+  <si>
+    <t>n/a</t>
   </si>
 </sst>
 </file>
@@ -241,7 +388,7 @@
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy\ h:mm"/>
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -259,31 +406,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF494949"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF4A4A4A"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -315,22 +437,21 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color theme="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF1F1F1F"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -354,78 +475,76 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="17" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="17" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -556,7 +675,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -879,7 +998,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2547,173 +2666,305 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6116C3DC-A9D4-4C9D-92C7-6AF576D95A4E}">
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:BD14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="7.42578125" style="23" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" style="9" customWidth="1"/>
+    <col min="4" max="4" width="7.42578125" style="21" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="36.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="25" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="47.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="31.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="30.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:56" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="17" t="s">
         <v>52</v>
       </c>
+      <c r="N1" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="O1" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="P1" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q1" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="R1" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="S1" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="T1" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="U1" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="V1" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="W1" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="X1" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y1" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z1" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA1" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB1" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="AC1" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="AD1" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="AE1" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF1" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="AG1" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="AH1" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="AI1" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="AJ1" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK1" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL1" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="AM1" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="AN1" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="AO1" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="AP1" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="AQ1" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="AR1" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="AS1" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AT1" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="AU1" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="AV1" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="AW1" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="AX1" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="AY1" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="AZ1" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="BA1" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="BB1" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="BC1" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="BD1" s="17" t="s">
+        <v>95</v>
+      </c>
     </row>
-    <row r="2" spans="1:13" s="10" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:56" s="4" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B2" s="5">
         <v>45729.581331018519</v>
       </c>
-      <c r="C2" s="9">
+      <c r="C2" s="6">
         <f>DATE(YEAR(B2),MONTH(B2),DAY(B2))</f>
         <v>45729</v>
       </c>
-      <c r="D2" s="22">
+      <c r="D2" s="18">
         <f>MONTH(C2)</f>
         <v>3</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="I2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="12" t="s">
+      <c r="J2" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="K2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="L2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="M2" s="25">
+      <c r="M2" s="19">
         <v>45748</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:56" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="17">
+      <c r="B3" s="8">
         <v>45733.336145833331</v>
       </c>
-      <c r="C3" s="18">
+      <c r="C3" s="9">
         <f t="shared" ref="C3:C4" si="0">DATE(YEAR(B3),MONTH(B3),DAY(B3))</f>
         <v>45733</v>
       </c>
-      <c r="D3" s="22">
-        <f t="shared" ref="D3:D5" si="1">MONTH(C3)</f>
+      <c r="D3" s="18">
+        <f t="shared" ref="D3:D6" si="1">MONTH(C3)</f>
         <v>3</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="1">
         <v>467363</v>
       </c>
-      <c r="F3" s="19" t="s">
+      <c r="F3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="I3" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="K3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="L3" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="10" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="7" t="s">
+    <row r="4" spans="1:56" s="4" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="5">
         <v>45734.507395833331</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="6">
         <f t="shared" si="0"/>
         <v>45734</v>
       </c>
-      <c r="D4" s="22">
+      <c r="D4" s="18">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="F4" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="4" t="s">
         <v>20</v>
       </c>
       <c r="H4" s="1" t="s">
@@ -2722,58 +2973,112 @@
       <c r="I4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J4" s="12" t="s">
+      <c r="J4" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="K4" s="13" t="s">
+      <c r="K4" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="L4" s="10" t="s">
+      <c r="L4" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:56" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="9">
         <v>45717</v>
       </c>
-      <c r="D5" s="22">
+      <c r="D5" s="18">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="E5" s="14">
+      <c r="E5" s="1">
         <v>213964</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="F5" s="10" t="s">
         <v>34</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H5" s="14" t="s">
+      <c r="H5" s="1" t="s">
         <v>35</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>101</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K5" s="14" t="s">
+      <c r="K5" s="1" t="s">
         <v>35</v>
       </c>
       <c r="L5" s="1" t="s">
         <v>36</v>
       </c>
+    </row>
+    <row r="6" spans="1:56" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="24">
+        <v>45741.295393518521</v>
+      </c>
+      <c r="C6" s="9">
+        <v>45718</v>
+      </c>
+      <c r="D6" s="18">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F6" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="K6" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:56" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K7" s="22"/>
+    </row>
+    <row r="8" spans="1:56" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K8" s="23"/>
+    </row>
+    <row r="14" spans="1:56" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="14"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="F3" r:id="rId1" xr:uid="{7A755BBD-D39C-4EF4-BFBF-ABCB150256E1}"/>
     <hyperlink ref="F4" r:id="rId2" xr:uid="{8A6D5B99-A77D-4E0E-BCDB-516C3047BE84}"/>
     <hyperlink ref="F5" r:id="rId3" xr:uid="{19A1C8DB-2233-40B1-93B5-7F8A163BBCCD}"/>
+    <hyperlink ref="F6" r:id="rId4" xr:uid="{2C3AAB94-BBE5-4C7D-8C10-EB8496D92590}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
-  <legacyDrawing r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+  <legacyDrawing r:id="rId6"/>
 </worksheet>
 </file>
 
@@ -2792,10 +3097,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="7" t="s">
         <v>33</v>
       </c>
     </row>
@@ -2832,7 +3137,7 @@
       </c>
       <c r="B5">
         <f>COUNTIF(NewUsers2025!$G$2:$G$400,A5)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2866,70 +3171,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
     </row>
-    <row r="2" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+    <row r="2" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="G2" s="20" t="s">
+      <c r="G2" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="I2" s="20" t="s">
+      <c r="I2" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="J2" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="K2" s="20" t="s">
+      <c r="K2" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="L2" s="11" t="s">
+      <c r="L2" s="7" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C3">
         <f>COUNTIF(NewUsers2025!$D$2:$D$400,3)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:L1"/>
   </mergeCells>
-  <phoneticPr fontId="13" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
